--- a/Code/Results/Cases/Case_5_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.20679422227748</v>
+        <v>13.60954197817042</v>
       </c>
       <c r="C2">
-        <v>10.66886410431587</v>
+        <v>6.393399622049882</v>
       </c>
       <c r="D2">
-        <v>4.436891159557053</v>
+        <v>6.484671421832469</v>
       </c>
       <c r="E2">
-        <v>29.4445111762992</v>
+        <v>16.30822471466244</v>
       </c>
       <c r="F2">
-        <v>33.98834007478533</v>
+        <v>35.06749170459285</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.3413993163903</v>
+        <v>12.91713939145584</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.83897316827642</v>
+        <v>20.89185839143319</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.96386665660246</v>
+        <v>13.29928857578269</v>
       </c>
       <c r="C3">
-        <v>9.903166996951027</v>
+        <v>6.111244584545926</v>
       </c>
       <c r="D3">
-        <v>4.525017116877128</v>
+        <v>6.498699826115866</v>
       </c>
       <c r="E3">
-        <v>27.24775550795918</v>
+        <v>15.39321256051893</v>
       </c>
       <c r="F3">
-        <v>32.54770663738611</v>
+        <v>34.78736585981625</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.24781842474699</v>
+        <v>12.69698921044773</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.91700181444221</v>
+        <v>20.91959389422701</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.16334251513514</v>
+        <v>13.10965990068858</v>
       </c>
       <c r="C4">
-        <v>9.410627758973972</v>
+        <v>5.93345404340446</v>
       </c>
       <c r="D4">
-        <v>4.579048165803297</v>
+        <v>6.507556599172942</v>
       </c>
       <c r="E4">
-        <v>25.84188967941888</v>
+        <v>14.80825640629554</v>
       </c>
       <c r="F4">
-        <v>31.66602331450905</v>
+        <v>34.62315099477182</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.54321028008966</v>
+        <v>12.56406682283925</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.97087897234569</v>
+        <v>20.93845682681559</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.82757462263849</v>
+        <v>13.03272826527347</v>
       </c>
       <c r="C5">
-        <v>9.204156806298805</v>
+        <v>5.859983051374587</v>
       </c>
       <c r="D5">
-        <v>4.601076083245173</v>
+        <v>6.511227304034957</v>
       </c>
       <c r="E5">
-        <v>25.25414725391532</v>
+        <v>14.56434032838408</v>
       </c>
       <c r="F5">
-        <v>31.30771666009087</v>
+        <v>34.55824208636061</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.24758312268714</v>
+        <v>12.51054216047668</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.99425655398755</v>
+        <v>20.94660367206159</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77123981303614</v>
+        <v>13.0199782856309</v>
       </c>
       <c r="C6">
-        <v>9.169521265833216</v>
+        <v>5.847725551560162</v>
       </c>
       <c r="D6">
-        <v>4.604735221812077</v>
+        <v>6.511840545584141</v>
       </c>
       <c r="E6">
-        <v>25.15564306868147</v>
+        <v>14.52351264597437</v>
       </c>
       <c r="F6">
-        <v>31.24828859433478</v>
+        <v>34.54758687092081</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.19797702506964</v>
+        <v>12.50169543769643</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.99822213091298</v>
+        <v>20.94798420787851</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.15885308063853</v>
+        <v>13.1086208153055</v>
       </c>
       <c r="C7">
-        <v>9.407866688760674</v>
+        <v>5.932467143345951</v>
       </c>
       <c r="D7">
-        <v>4.579345164587207</v>
+        <v>6.507605854197755</v>
       </c>
       <c r="E7">
-        <v>25.83402389260239</v>
+        <v>14.80498890344661</v>
       </c>
       <c r="F7">
-        <v>31.66118667723924</v>
+        <v>34.6222674057789</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.53925794164387</v>
+        <v>12.56334226974253</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.97118859025602</v>
+        <v>20.93856483664765</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.78588962013863</v>
+        <v>13.50246073389677</v>
       </c>
       <c r="C8">
-        <v>10.40942202253789</v>
+        <v>6.29712544017027</v>
       </c>
       <c r="D8">
-        <v>4.467311805732347</v>
+        <v>6.489458120677437</v>
       </c>
       <c r="E8">
-        <v>28.69859775810654</v>
+        <v>15.99768001179853</v>
       </c>
       <c r="F8">
-        <v>33.49115194365361</v>
+        <v>34.96932169457136</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.97111243986304</v>
+        <v>12.84081046580285</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.86458943476708</v>
+        <v>20.90104054740191</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.68792813935868</v>
+        <v>14.27632484620022</v>
       </c>
       <c r="C9">
-        <v>12.20197486868719</v>
+        <v>6.971478470939204</v>
       </c>
       <c r="D9">
-        <v>4.24553704534101</v>
+        <v>6.455785322062637</v>
       </c>
       <c r="E9">
-        <v>33.88839886403964</v>
+        <v>18.16694151412842</v>
       </c>
       <c r="F9">
-        <v>37.0947082124508</v>
+        <v>35.70915304109386</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.52383707487792</v>
+        <v>13.39941147107741</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.70685092548472</v>
+        <v>20.84204368229384</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.65668506035875</v>
+        <v>14.83898125040868</v>
       </c>
       <c r="C10">
-        <v>13.42415215955323</v>
+        <v>7.436798923952876</v>
       </c>
       <c r="D10">
-        <v>4.079123080225045</v>
+        <v>6.4321907441379</v>
       </c>
       <c r="E10">
-        <v>37.48061365072363</v>
+        <v>19.79230145112534</v>
       </c>
       <c r="F10">
-        <v>39.74750534339358</v>
+        <v>36.28525387245356</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.2559584787952</v>
+        <v>13.81416497874525</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.62848486748846</v>
+        <v>20.80765111702445</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.52014521217179</v>
+        <v>15.09232927512537</v>
       </c>
       <c r="C11">
-        <v>13.96209612006385</v>
+        <v>7.641072030997474</v>
       </c>
       <c r="D11">
-        <v>4.002120413745413</v>
+        <v>6.421700686622354</v>
       </c>
       <c r="E11">
-        <v>39.07757486793395</v>
+        <v>20.49057219916619</v>
       </c>
       <c r="F11">
-        <v>40.95674760432649</v>
+        <v>36.55358423532585</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.01594191875747</v>
+        <v>14.00286883827805</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.60262309149667</v>
+        <v>20.79396176333289</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.84281494388625</v>
+        <v>15.18778806604171</v>
       </c>
       <c r="C12">
-        <v>14.16345582757806</v>
+        <v>7.717301828672779</v>
       </c>
       <c r="D12">
-        <v>3.972725345729694</v>
+        <v>6.417762997475651</v>
       </c>
       <c r="E12">
-        <v>39.67803337096545</v>
+        <v>20.74911539155547</v>
       </c>
       <c r="F12">
-        <v>41.41527181393649</v>
+        <v>36.6560218819017</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.30000828068306</v>
+        <v>14.07425658488964</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.59439843218231</v>
+        <v>20.78906027981356</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.77350809294942</v>
+        <v>15.16725216986968</v>
       </c>
       <c r="C13">
-        <v>14.1201895375226</v>
+        <v>7.700935216203633</v>
       </c>
       <c r="D13">
-        <v>3.979067405206062</v>
+        <v>6.418609512301609</v>
       </c>
       <c r="E13">
-        <v>39.54888506479895</v>
+        <v>20.69369430052288</v>
       </c>
       <c r="F13">
-        <v>41.31648774940705</v>
+        <v>36.63392451363512</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.23898985660752</v>
+        <v>14.05888624086158</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.59609717777098</v>
+        <v>20.7901033255147</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54677571372673</v>
+        <v>15.10019288827483</v>
       </c>
       <c r="C14">
-        <v>13.97870762605571</v>
+        <v>7.647366336390227</v>
       </c>
       <c r="D14">
-        <v>3.999707083109934</v>
+        <v>6.421376037533133</v>
       </c>
       <c r="E14">
-        <v>39.12705387270856</v>
+        <v>20.51196028111629</v>
       </c>
       <c r="F14">
-        <v>40.99445648722198</v>
+        <v>36.56199569761709</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.03938497499092</v>
+        <v>14.00874377750355</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.60191399999789</v>
+        <v>20.79355284973218</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.407345318226</v>
+        <v>15.05905185548993</v>
       </c>
       <c r="C15">
-        <v>13.89174799087758</v>
+        <v>7.614405868361492</v>
       </c>
       <c r="D15">
-        <v>4.01231725689259</v>
+        <v>6.423075119774717</v>
       </c>
       <c r="E15">
-        <v>38.86814803886761</v>
+        <v>20.39987866069176</v>
       </c>
       <c r="F15">
-        <v>40.79729241811301</v>
+        <v>36.51804268920964</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.9166459965058</v>
+        <v>13.97801874830455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.60568643191764</v>
+        <v>20.7957025896553</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.59963531168288</v>
+        <v>14.82236287387841</v>
       </c>
       <c r="C16">
-        <v>13.38865353847371</v>
+        <v>7.423294929176697</v>
       </c>
       <c r="D16">
-        <v>4.08412512973569</v>
+        <v>6.432881162112835</v>
       </c>
       <c r="E16">
-        <v>37.37558793789954</v>
+        <v>19.74584352617361</v>
       </c>
       <c r="F16">
-        <v>39.66854701402953</v>
+        <v>36.26783757199052</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.20575358952368</v>
+        <v>13.8018268995754</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.63038521232482</v>
+        <v>20.80858520284805</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.09611192542424</v>
+        <v>14.67641809502877</v>
       </c>
       <c r="C17">
-        <v>13.07556638028547</v>
+        <v>7.304113088791842</v>
       </c>
       <c r="D17">
-        <v>4.127810333852108</v>
+        <v>6.438958929172722</v>
       </c>
       <c r="E17">
-        <v>36.45113831369942</v>
+        <v>19.33410914472458</v>
       </c>
       <c r="F17">
-        <v>38.97687122803428</v>
+        <v>36.11589631629958</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.76268074430554</v>
+        <v>13.69369265663082</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.64815165358505</v>
+        <v>20.81699003489425</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.80345217739142</v>
+        <v>14.592234884122</v>
       </c>
       <c r="C18">
-        <v>12.89377320740967</v>
+        <v>7.234868908005339</v>
       </c>
       <c r="D18">
-        <v>4.152817689813905</v>
+        <v>6.442477612752498</v>
       </c>
       <c r="E18">
-        <v>35.91584869836144</v>
+        <v>19.09341850779617</v>
       </c>
       <c r="F18">
-        <v>38.57924728638059</v>
+        <v>36.02909737193071</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.50518441112301</v>
+        <v>13.63150386155309</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.65928077931597</v>
+        <v>20.82200831358856</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.70383045686757</v>
+        <v>14.56369401187707</v>
       </c>
       <c r="C19">
-        <v>12.83191994874499</v>
+        <v>7.21130679703285</v>
       </c>
       <c r="D19">
-        <v>4.161265704001005</v>
+        <v>6.443672923258386</v>
       </c>
       <c r="E19">
-        <v>35.73396593007794</v>
+        <v>19.01125871118485</v>
       </c>
       <c r="F19">
-        <v>38.4446490465661</v>
+        <v>35.99981290815454</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.41753656520531</v>
+        <v>13.61045135656502</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.66320071033498</v>
+        <v>20.82373899202278</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.15002598886345</v>
+        <v>14.69197974060214</v>
       </c>
       <c r="C20">
-        <v>13.10907074802718</v>
+        <v>7.316872478736756</v>
       </c>
       <c r="D20">
-        <v>4.12317265022264</v>
+        <v>6.438309571436641</v>
       </c>
       <c r="E20">
-        <v>36.54990994532019</v>
+        <v>19.37833944310921</v>
       </c>
       <c r="F20">
-        <v>39.05047817232327</v>
+        <v>36.13200980873501</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.81011910297349</v>
+        <v>13.70520354053465</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.64616507268426</v>
+        <v>20.81607627072473</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.61348654955824</v>
+        <v>15.11990360562714</v>
       </c>
       <c r="C21">
-        <v>14.02032587986211</v>
+        <v>7.663131747590468</v>
       </c>
       <c r="D21">
-        <v>3.993651517345323</v>
+        <v>6.420562503580269</v>
       </c>
       <c r="E21">
-        <v>39.25106253990954</v>
+        <v>20.565499181705</v>
       </c>
       <c r="F21">
-        <v>41.08902559922297</v>
+        <v>36.58310108768828</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.09811220778876</v>
+        <v>14.0234743231299</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.60016148597443</v>
+        <v>20.7925319683769</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.54503979677082</v>
+        <v>15.39674379772434</v>
       </c>
       <c r="C22">
-        <v>14.60234011826652</v>
+        <v>7.882859397866519</v>
       </c>
       <c r="D22">
-        <v>3.90760215807947</v>
+        <v>6.409165698469921</v>
       </c>
       <c r="E22">
-        <v>40.99213634454122</v>
+        <v>21.30713855461097</v>
       </c>
       <c r="F22">
-        <v>42.42511173990219</v>
+        <v>36.88269940358288</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.91836224387407</v>
+        <v>14.2310403880349</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.57933098325964</v>
+        <v>20.77879083166575</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.05001311590586</v>
+        <v>15.2492806101463</v>
       </c>
       <c r="C23">
-        <v>14.29285633635532</v>
+        <v>7.766205323707675</v>
       </c>
       <c r="D23">
-        <v>3.95367348378047</v>
+        <v>6.415230012739907</v>
       </c>
       <c r="E23">
-        <v>40.0647111558867</v>
+        <v>20.91443283722312</v>
       </c>
       <c r="F23">
-        <v>41.71155110371467</v>
+        <v>36.72238496427234</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.48243863293564</v>
+        <v>14.12032283203509</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.58954404486722</v>
+        <v>20.78597372117633</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12566136112098</v>
+        <v>14.68494517735681</v>
       </c>
       <c r="C24">
-        <v>13.09392903293824</v>
+        <v>7.311106212039063</v>
       </c>
       <c r="D24">
-        <v>4.125269679313909</v>
+        <v>6.438603069710254</v>
       </c>
       <c r="E24">
-        <v>36.50526723927305</v>
+        <v>19.35835532231437</v>
       </c>
       <c r="F24">
-        <v>39.01720039782728</v>
+        <v>36.12472316713596</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.78868086420099</v>
+        <v>13.69999952952019</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.64706036795289</v>
+        <v>20.81648880343234</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.93254378747415</v>
+        <v>14.06753569357277</v>
       </c>
       <c r="C25">
-        <v>11.73446458187089</v>
+        <v>6.794005497978477</v>
       </c>
       <c r="D25">
-        <v>4.305972011458794</v>
+        <v>6.464692042447573</v>
       </c>
       <c r="E25">
-        <v>32.52639930716657</v>
+        <v>17.58471719701074</v>
       </c>
       <c r="F25">
-        <v>36.11899212236082</v>
+        <v>35.50302250119643</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.85939448927662</v>
+        <v>13.24721134675389</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.74343379664975</v>
+        <v>20.85643602709043</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.60954197817042</v>
+        <v>17.20679422227744</v>
       </c>
       <c r="C2">
-        <v>6.393399622049882</v>
+        <v>10.66886410431579</v>
       </c>
       <c r="D2">
-        <v>6.484671421832469</v>
+        <v>4.43689115955705</v>
       </c>
       <c r="E2">
-        <v>16.30822471466244</v>
+        <v>29.44451117629916</v>
       </c>
       <c r="F2">
-        <v>35.06749170459285</v>
+        <v>33.98834007478528</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.91713939145584</v>
+        <v>15.34139931639024</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.89185839143319</v>
+        <v>14.83897316827643</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.29928857578269</v>
+        <v>15.96386665660245</v>
       </c>
       <c r="C3">
-        <v>6.111244584545926</v>
+        <v>9.903166996951102</v>
       </c>
       <c r="D3">
-        <v>6.498699826115866</v>
+        <v>4.525017116877127</v>
       </c>
       <c r="E3">
-        <v>15.39321256051893</v>
+        <v>27.24775550795918</v>
       </c>
       <c r="F3">
-        <v>34.78736585981625</v>
+        <v>32.54770663738604</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.69698921044773</v>
+        <v>14.24781842474699</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.91959389422701</v>
+        <v>14.9170018144421</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.10965990068858</v>
+        <v>15.16334251513502</v>
       </c>
       <c r="C4">
-        <v>5.93345404340446</v>
+        <v>9.41062775897408</v>
       </c>
       <c r="D4">
-        <v>6.507556599172942</v>
+        <v>4.579048165803239</v>
       </c>
       <c r="E4">
-        <v>14.80825640629554</v>
+        <v>25.84188967941886</v>
       </c>
       <c r="F4">
-        <v>34.62315099477182</v>
+        <v>31.6660233145092</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.56406682283925</v>
+        <v>13.54321028008959</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.93845682681559</v>
+        <v>14.97087897234582</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.03272826527347</v>
+        <v>14.82757462263855</v>
       </c>
       <c r="C5">
-        <v>5.859983051374587</v>
+        <v>9.204156806298865</v>
       </c>
       <c r="D5">
-        <v>6.511227304034957</v>
+        <v>4.601076083245106</v>
       </c>
       <c r="E5">
-        <v>14.56434032838408</v>
+        <v>25.25414725391532</v>
       </c>
       <c r="F5">
-        <v>34.55824208636061</v>
+        <v>31.30771666009053</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.51054216047668</v>
+        <v>13.24758312268723</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.94660367206159</v>
+        <v>14.9942565539874</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.0199782856309</v>
+        <v>14.77123981303617</v>
       </c>
       <c r="C6">
-        <v>5.847725551560162</v>
+        <v>9.169521265833138</v>
       </c>
       <c r="D6">
-        <v>6.511840545584141</v>
+        <v>4.604735221812076</v>
       </c>
       <c r="E6">
-        <v>14.52351264597437</v>
+        <v>25.15564306868151</v>
       </c>
       <c r="F6">
-        <v>34.54758687092081</v>
+        <v>31.24828859433472</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.50169543769643</v>
+        <v>13.19797702506965</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.94798420787851</v>
+        <v>14.99822213091293</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.1086208153055</v>
+        <v>15.15885308063856</v>
       </c>
       <c r="C7">
-        <v>5.932467143345951</v>
+        <v>9.407866688760787</v>
       </c>
       <c r="D7">
-        <v>6.507605854197755</v>
+        <v>4.579345164587272</v>
       </c>
       <c r="E7">
-        <v>14.80498890344661</v>
+        <v>25.83402389260253</v>
       </c>
       <c r="F7">
-        <v>34.6222674057789</v>
+        <v>31.66118667723897</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.56334226974253</v>
+        <v>13.53925794164392</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.93856483664765</v>
+        <v>14.97118859025585</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50246073389677</v>
+        <v>16.78588962013849</v>
       </c>
       <c r="C8">
-        <v>6.29712544017027</v>
+        <v>10.40942202253796</v>
       </c>
       <c r="D8">
-        <v>6.489458120677437</v>
+        <v>4.467311805732275</v>
       </c>
       <c r="E8">
-        <v>15.99768001179853</v>
+        <v>28.69859775810638</v>
       </c>
       <c r="F8">
-        <v>34.96932169457136</v>
+        <v>33.49115194365366</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.84081046580285</v>
+        <v>14.97111243986295</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.90104054740191</v>
+        <v>14.86458943476711</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27632484620022</v>
+        <v>19.68792813935859</v>
       </c>
       <c r="C9">
-        <v>6.971478470939204</v>
+        <v>12.20197486868725</v>
       </c>
       <c r="D9">
-        <v>6.455785322062637</v>
+        <v>4.245537045340943</v>
       </c>
       <c r="E9">
-        <v>18.16694151412842</v>
+        <v>33.88839886403957</v>
       </c>
       <c r="F9">
-        <v>35.70915304109386</v>
+        <v>37.09470821245085</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.39941147107741</v>
+        <v>17.5238370748779</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.84204368229384</v>
+        <v>14.7068509254848</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.83898125040868</v>
+        <v>21.65668506035883</v>
       </c>
       <c r="C10">
-        <v>7.436798923952876</v>
+        <v>13.42415215955332</v>
       </c>
       <c r="D10">
-        <v>6.4321907441379</v>
+        <v>4.079123080224988</v>
       </c>
       <c r="E10">
-        <v>19.79230145112534</v>
+        <v>37.48061365072372</v>
       </c>
       <c r="F10">
-        <v>36.28525387245356</v>
+        <v>39.74750534339356</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.81416497874525</v>
+        <v>19.2559584787953</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.80765111702445</v>
+        <v>14.62848486748837</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.09232927512537</v>
+        <v>22.52014521217182</v>
       </c>
       <c r="C11">
-        <v>7.641072030997474</v>
+        <v>13.96209612006379</v>
       </c>
       <c r="D11">
-        <v>6.421700686622354</v>
+        <v>4.00212041374559</v>
       </c>
       <c r="E11">
-        <v>20.49057219916619</v>
+        <v>39.07757486793395</v>
       </c>
       <c r="F11">
-        <v>36.55358423532585</v>
+        <v>40.95674760432659</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.00286883827805</v>
+        <v>20.01594191875744</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.79396176333289</v>
+        <v>14.6026230914967</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.18778806604171</v>
+        <v>22.84281494388622</v>
       </c>
       <c r="C12">
-        <v>7.717301828672779</v>
+        <v>14.16345582757818</v>
       </c>
       <c r="D12">
-        <v>6.417762997475651</v>
+        <v>3.97272534572958</v>
       </c>
       <c r="E12">
-        <v>20.74911539155547</v>
+        <v>39.67803337096539</v>
       </c>
       <c r="F12">
-        <v>36.6560218819017</v>
+        <v>41.41527181393646</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.07425658488964</v>
+        <v>20.30000828068304</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.78906027981356</v>
+        <v>14.59439843218233</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.16725216986968</v>
+        <v>22.77350809294933</v>
       </c>
       <c r="C13">
-        <v>7.700935216203633</v>
+        <v>14.1201895375226</v>
       </c>
       <c r="D13">
-        <v>6.418609512301609</v>
+        <v>3.97906740520613</v>
       </c>
       <c r="E13">
-        <v>20.69369430052288</v>
+        <v>39.54888506479887</v>
       </c>
       <c r="F13">
-        <v>36.63392451363512</v>
+        <v>41.31648774940702</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.05888624086158</v>
+        <v>20.23898985660746</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.7901033255147</v>
+        <v>14.59609717777108</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.10019288827483</v>
+        <v>22.54677571372666</v>
       </c>
       <c r="C14">
-        <v>7.647366336390227</v>
+        <v>13.97870762605579</v>
       </c>
       <c r="D14">
-        <v>6.421376037533133</v>
+        <v>3.999707083110059</v>
       </c>
       <c r="E14">
-        <v>20.51196028111629</v>
+        <v>39.12705387270845</v>
       </c>
       <c r="F14">
-        <v>36.56199569761709</v>
+        <v>40.99445648722192</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.00874377750355</v>
+        <v>20.03938497499085</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.79355284973218</v>
+        <v>14.60191399999794</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.05905185548993</v>
+        <v>22.40734531822606</v>
       </c>
       <c r="C15">
-        <v>7.614405868361492</v>
+        <v>13.89174799087768</v>
       </c>
       <c r="D15">
-        <v>6.423075119774717</v>
+        <v>4.012317256892447</v>
       </c>
       <c r="E15">
-        <v>20.39987866069176</v>
+        <v>38.86814803886776</v>
       </c>
       <c r="F15">
-        <v>36.51804268920964</v>
+        <v>40.79729241811299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.97801874830455</v>
+        <v>19.91664599650585</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.7957025896553</v>
+        <v>14.60568643191752</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.82236287387841</v>
+        <v>21.59963531168281</v>
       </c>
       <c r="C16">
-        <v>7.423294929176697</v>
+        <v>13.38865353847369</v>
       </c>
       <c r="D16">
-        <v>6.432881162112835</v>
+        <v>4.084125129735699</v>
       </c>
       <c r="E16">
-        <v>19.74584352617361</v>
+        <v>37.37558793789958</v>
       </c>
       <c r="F16">
-        <v>36.26783757199052</v>
+        <v>39.66854701402951</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.8018268995754</v>
+        <v>19.20575358952367</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.80858520284805</v>
+        <v>14.63038521232476</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67641809502877</v>
+        <v>21.0961119254242</v>
       </c>
       <c r="C17">
-        <v>7.304113088791842</v>
+        <v>13.07556638028537</v>
       </c>
       <c r="D17">
-        <v>6.438958929172722</v>
+        <v>4.127810333852046</v>
       </c>
       <c r="E17">
-        <v>19.33410914472458</v>
+        <v>36.45113831369932</v>
       </c>
       <c r="F17">
-        <v>36.11589631629958</v>
+        <v>38.97687122803435</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.69369265663082</v>
+        <v>18.76268074430547</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.81699003489425</v>
+        <v>14.64815165358515</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.592234884122</v>
+        <v>20.80345217739159</v>
       </c>
       <c r="C18">
-        <v>7.234868908005339</v>
+        <v>12.89377320740997</v>
       </c>
       <c r="D18">
-        <v>6.442477612752498</v>
+        <v>4.152817689813733</v>
       </c>
       <c r="E18">
-        <v>19.09341850779617</v>
+        <v>35.91584869836163</v>
       </c>
       <c r="F18">
-        <v>36.02909737193071</v>
+        <v>38.57924728638063</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.63150386155309</v>
+        <v>18.50518441112323</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.82200831358856</v>
+        <v>14.6592807793158</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.56369401187707</v>
+        <v>20.70383045686747</v>
       </c>
       <c r="C19">
-        <v>7.21130679703285</v>
+        <v>12.83191994874506</v>
       </c>
       <c r="D19">
-        <v>6.443672923258386</v>
+        <v>4.16126570400106</v>
       </c>
       <c r="E19">
-        <v>19.01125871118485</v>
+        <v>35.73396593007784</v>
       </c>
       <c r="F19">
-        <v>35.99981290815454</v>
+        <v>38.44464904656611</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.61045135656502</v>
+        <v>18.41753656520524</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.82373899202278</v>
+        <v>14.66320071033507</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69197974060214</v>
+        <v>21.15002598886351</v>
       </c>
       <c r="C20">
-        <v>7.316872478736756</v>
+        <v>13.1090707480271</v>
       </c>
       <c r="D20">
-        <v>6.438309571436641</v>
+        <v>4.123172650222712</v>
       </c>
       <c r="E20">
-        <v>19.37833944310921</v>
+        <v>36.54990994532017</v>
       </c>
       <c r="F20">
-        <v>36.13200980873501</v>
+        <v>39.05047817232325</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.70520354053465</v>
+        <v>18.81011910297347</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.81607627072473</v>
+        <v>14.64616507268424</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.11990360562714</v>
+        <v>22.61348654955841</v>
       </c>
       <c r="C21">
-        <v>7.663131747590468</v>
+        <v>14.02032587986218</v>
       </c>
       <c r="D21">
-        <v>6.420562503580269</v>
+        <v>3.993651517345204</v>
       </c>
       <c r="E21">
-        <v>20.565499181705</v>
+        <v>39.25106253990963</v>
       </c>
       <c r="F21">
-        <v>36.58310108768828</v>
+        <v>41.08902559922301</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.0234743231299</v>
+        <v>20.09811220778893</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.7925319683769</v>
+        <v>14.60016148597441</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.39674379772434</v>
+        <v>23.54503979677071</v>
       </c>
       <c r="C22">
-        <v>7.882859397866519</v>
+        <v>14.60234011826649</v>
       </c>
       <c r="D22">
-        <v>6.409165698469921</v>
+        <v>3.907602158079541</v>
       </c>
       <c r="E22">
-        <v>21.30713855461097</v>
+        <v>40.99213634454105</v>
       </c>
       <c r="F22">
-        <v>36.88269940358288</v>
+        <v>42.42511173990218</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.2310403880349</v>
+        <v>20.918362243874</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.77879083166575</v>
+        <v>14.57933098325975</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.2492806101463</v>
+        <v>23.05001311590591</v>
       </c>
       <c r="C23">
-        <v>7.766205323707675</v>
+        <v>14.29285633635527</v>
       </c>
       <c r="D23">
-        <v>6.415230012739907</v>
+        <v>3.953673483780656</v>
       </c>
       <c r="E23">
-        <v>20.91443283722312</v>
+        <v>40.06471115588685</v>
       </c>
       <c r="F23">
-        <v>36.72238496427234</v>
+        <v>41.71155110371475</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.12032283203509</v>
+        <v>20.48243863293565</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.78597372117633</v>
+        <v>14.58954404486721</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.68494517735681</v>
+        <v>21.12566136112091</v>
       </c>
       <c r="C24">
-        <v>7.311106212039063</v>
+        <v>13.09392903293841</v>
       </c>
       <c r="D24">
-        <v>6.438603069710254</v>
+        <v>4.125269679314224</v>
       </c>
       <c r="E24">
-        <v>19.35835532231437</v>
+        <v>36.50526723927304</v>
       </c>
       <c r="F24">
-        <v>36.12472316713596</v>
+        <v>39.01720039782708</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.69999952952019</v>
+        <v>18.78868086420099</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.81648880343234</v>
+        <v>14.64706036795289</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06753569357277</v>
+        <v>18.93254378747416</v>
       </c>
       <c r="C25">
-        <v>6.794005497978477</v>
+        <v>11.73446458187106</v>
       </c>
       <c r="D25">
-        <v>6.464692042447573</v>
+        <v>4.30597201145887</v>
       </c>
       <c r="E25">
-        <v>17.58471719701074</v>
+        <v>32.52639930716671</v>
       </c>
       <c r="F25">
-        <v>35.50302250119643</v>
+        <v>36.11899212236085</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.24721134675389</v>
+        <v>16.85939448927668</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.85643602709043</v>
+        <v>14.74343379664969</v>
       </c>
       <c r="O25">
         <v>0</v>
